--- a/Output/March/productivity_agent/productivity_agent_2022-03-30.xlsx
+++ b/Output/March/productivity_agent/productivity_agent_2022-03-30.xlsx
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1158</v>
+        <v>1182</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1914,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="AZ2">
-        <v>731.3684210526316</v>
+        <v>746.5263157894738</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.8604334365325077</v>
+        <v>0.8782662538699691</v>
       </c>
       <c r="CM2">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.4905577007662569</v>
+        <v>0.4945913142116351</v>
       </c>
     </row>
     <row r="3" spans="1:105">
@@ -12895,7 +12895,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -13009,7 +13009,7 @@
         <v>0</v>
       </c>
       <c r="AZ37">
-        <v>372.5373134328358</v>
+        <v>373.134328358209</v>
       </c>
       <c r="BA37">
         <v>0</v>
@@ -13123,7 +13123,7 @@
         <v>0</v>
       </c>
       <c r="CL37">
-        <v>0.4382791922739245</v>
+        <v>0.4389815627743636</v>
       </c>
       <c r="CM37">
         <v>0</v>
@@ -13168,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="DA37">
-        <v>0.4980827481855865</v>
+        <v>0.4985004300512322</v>
       </c>
     </row>
     <row r="38" spans="1:105">
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2669</v>
+        <v>2769</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -14277,7 +14277,7 @@
         <v>0</v>
       </c>
       <c r="AZ41">
-        <v>842.8421052631579</v>
+        <v>874.421052631579</v>
       </c>
       <c r="BA41">
         <v>0</v>
@@ -14391,7 +14391,7 @@
         <v>0</v>
       </c>
       <c r="CL41">
-        <v>0.9915789473684211</v>
+        <v>1.028730650154799</v>
       </c>
       <c r="CM41">
         <v>0</v>
@@ -14436,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="DA41">
-        <v>0.5832946635730858</v>
+        <v>0.599672444383786</v>
       </c>
     </row>
     <row r="42" spans="1:105">
@@ -14480,7 +14480,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <v>1545</v>
+        <v>1557</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
       <c r="AZ42">
-        <v>399.5689655172414</v>
+        <v>402.6724137931034</v>
       </c>
       <c r="BA42">
         <v>0</v>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="CL42">
-        <v>0.4700811359026369</v>
+        <v>0.4737322515212982</v>
       </c>
       <c r="CM42">
         <v>0</v>
@@ -14753,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="DA42">
-        <v>0.4170063025210085</v>
+        <v>0.4188970588235295</v>
       </c>
     </row>
     <row r="43" spans="1:105">
@@ -20820,7 +20820,7 @@
         <v>86</v>
       </c>
       <c r="N62">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="O62">
         <v>86</v>
@@ -20934,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="AZ62">
-        <v>652.2352941176471</v>
+        <v>652.9411764705883</v>
       </c>
       <c r="BA62">
         <v>396.9230769230769</v>
@@ -21048,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="CL62">
-        <v>0.7673356401384083</v>
+        <v>0.768166089965398</v>
       </c>
       <c r="CM62">
         <v>0.4961538461538461</v>
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="DA62">
-        <v>0.6784282881692003</v>
+        <v>0.6789041639127562</v>
       </c>
     </row>
     <row r="63" spans="1:105">
@@ -21771,7 +21771,7 @@
         <v>1377</v>
       </c>
       <c r="N65">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="O65">
         <v>1377</v>
@@ -21885,7 +21885,7 @@
         <v>0</v>
       </c>
       <c r="AZ65">
-        <v>111.2727272727273</v>
+        <v>144</v>
       </c>
       <c r="BA65">
         <v>794.4230769230769</v>
@@ -21999,7 +21999,7 @@
         <v>0</v>
       </c>
       <c r="CL65">
-        <v>0.1309090909090909</v>
+        <v>0.1694117647058823</v>
       </c>
       <c r="CM65">
         <v>0.9930288461538461</v>
@@ -22044,7 +22044,7 @@
         <v>0</v>
       </c>
       <c r="DA65">
-        <v>0.4232189128816083</v>
+        <v>0.4285800446760983</v>
       </c>
     </row>
     <row r="66" spans="1:105">
@@ -22405,7 +22405,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -22519,7 +22519,7 @@
         <v>0</v>
       </c>
       <c r="AZ67">
-        <v>253.2631578947368</v>
+        <v>260.8421052631579</v>
       </c>
       <c r="BA67">
         <v>0</v>
@@ -22633,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="CL67">
-        <v>0.2979566563467492</v>
+        <v>0.3068730650154799</v>
       </c>
       <c r="CM67">
         <v>0</v>
@@ -22678,7 +22678,7 @@
         <v>0</v>
       </c>
       <c r="DA67">
-        <v>0.2955005879825583</v>
+        <v>0.2980909819383057</v>
       </c>
     </row>
     <row r="68" spans="1:105">
